--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Itgb3</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H2">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J2">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>2.198336161075757</v>
+        <v>3.304148317950556</v>
       </c>
       <c r="R2">
-        <v>2.198336161075757</v>
+        <v>29.737334861555</v>
       </c>
       <c r="S2">
-        <v>0.01412801525170753</v>
+        <v>0.01739180836612313</v>
       </c>
       <c r="T2">
-        <v>0.01412801525170753</v>
+        <v>0.01739180836612313</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H3">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J3">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>1.180064776097939</v>
+        <v>1.376759970730667</v>
       </c>
       <c r="R3">
-        <v>1.180064776097939</v>
+        <v>12.390839736576</v>
       </c>
       <c r="S3">
-        <v>0.00758390525066743</v>
+        <v>0.007246752649393433</v>
       </c>
       <c r="T3">
-        <v>0.00758390525066743</v>
+        <v>0.007246752649393434</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H4">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J4">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>0.09561537366411664</v>
+        <v>0.1146091986247778</v>
       </c>
       <c r="R4">
-        <v>0.09561537366411664</v>
+        <v>1.031482787623</v>
       </c>
       <c r="S4">
-        <v>0.0006144899407756238</v>
+        <v>0.0006032602134257175</v>
       </c>
       <c r="T4">
-        <v>0.0006144899407756238</v>
+        <v>0.0006032602134257174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.428494796661001</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H5">
-        <v>0.428494796661001</v>
+        <v>1.499573</v>
       </c>
       <c r="I5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J5">
-        <v>0.02293464248150349</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>0.09464163652247105</v>
+        <v>0.107402417406</v>
       </c>
       <c r="R5">
-        <v>0.09464163652247105</v>
+        <v>0.9666217566540001</v>
       </c>
       <c r="S5">
-        <v>0.0006082320383529158</v>
+        <v>0.0005653263963471605</v>
       </c>
       <c r="T5">
-        <v>0.0006082320383529158</v>
+        <v>0.0005653263963471604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.5844203953138</v>
+        <v>0.4998576666666667</v>
       </c>
       <c r="H6">
-        <v>17.5844203953138</v>
+        <v>1.499573</v>
       </c>
       <c r="I6">
-        <v>0.9411838793693468</v>
+        <v>0.02650617333988447</v>
       </c>
       <c r="J6">
-        <v>0.9411838793693468</v>
+        <v>0.02650617333988446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>90.21455459390101</v>
+        <v>0.1328030179761111</v>
       </c>
       <c r="R6">
-        <v>90.21455459390101</v>
+        <v>1.195227161785</v>
       </c>
       <c r="S6">
-        <v>0.5797805748711934</v>
+        <v>0.0006990257145950227</v>
       </c>
       <c r="T6">
-        <v>0.5797805748711934</v>
+        <v>0.0006990257145950227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H7">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J7">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>48.42708774600302</v>
+        <v>116.5548111585411</v>
       </c>
       <c r="R7">
-        <v>48.42708774600302</v>
+        <v>1048.99330042687</v>
       </c>
       <c r="S7">
-        <v>0.3112256652942952</v>
+        <v>0.6135011944852261</v>
       </c>
       <c r="T7">
-        <v>0.3112256652942952</v>
+        <v>0.6135011944852261</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H8">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J8">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>3.923830440571294</v>
+        <v>48.56561599470933</v>
       </c>
       <c r="R8">
-        <v>3.923830440571294</v>
+        <v>437.0905439523839</v>
       </c>
       <c r="S8">
-        <v>0.02521722441320253</v>
+        <v>0.2556313474107637</v>
       </c>
       <c r="T8">
-        <v>0.02521722441320253</v>
+        <v>0.2556313474107637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5844203953138</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H9">
-        <v>17.5844203953138</v>
+        <v>52.897882</v>
       </c>
       <c r="I9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J9">
-        <v>0.9411838793693468</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>3.883870554508142</v>
+        <v>4.042873447953555</v>
       </c>
       <c r="R9">
-        <v>3.883870554508142</v>
+        <v>36.385861031582</v>
       </c>
       <c r="S9">
-        <v>0.02496041479065579</v>
+        <v>0.02128018281543374</v>
       </c>
       <c r="T9">
-        <v>0.02496041479065579</v>
+        <v>0.02128018281543374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.670384406289123</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H10">
-        <v>0.670384406289123</v>
+        <v>52.897882</v>
       </c>
       <c r="I10">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J10">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>3.439318968749595</v>
+        <v>3.788652104604</v>
       </c>
       <c r="R10">
-        <v>3.439318968749595</v>
+        <v>34.097868941436</v>
       </c>
       <c r="S10">
-        <v>0.02210342153595079</v>
+        <v>0.01994205617562954</v>
       </c>
       <c r="T10">
-        <v>0.02210342153595079</v>
+        <v>0.01994205617562954</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.670384406289123</v>
+        <v>17.63262733333333</v>
       </c>
       <c r="H11">
-        <v>0.670384406289123</v>
+        <v>52.897882</v>
       </c>
       <c r="I11">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380354</v>
       </c>
       <c r="J11">
-        <v>0.03588147814914962</v>
+        <v>0.9350131201380353</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>1.846223175804377</v>
+        <v>4.684665817632221</v>
       </c>
       <c r="R11">
-        <v>1.846223175804377</v>
+        <v>42.16199235869</v>
       </c>
       <c r="S11">
-        <v>0.01186509581548992</v>
+        <v>0.02465833925098223</v>
       </c>
       <c r="T11">
-        <v>0.01186509581548992</v>
+        <v>0.02465833925098224</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.670384406289123</v>
+        <v>0.01414533333333333</v>
       </c>
       <c r="H12">
-        <v>0.670384406289123</v>
+        <v>0.042436</v>
       </c>
       <c r="I12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267997</v>
       </c>
       <c r="J12">
-        <v>0.03588147814914962</v>
+        <v>0.0007500908404267996</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>0.1495912109211509</v>
+        <v>0.09350317591777779</v>
       </c>
       <c r="R12">
-        <v>0.1495912109211509</v>
+        <v>0.8415285832600001</v>
       </c>
       <c r="S12">
-        <v>0.0009613756744015034</v>
+        <v>0.0004921659564588061</v>
       </c>
       <c r="T12">
-        <v>0.0009613756744015034</v>
+        <v>0.0004921659564588061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.042436</v>
+      </c>
+      <c r="I13">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J13">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.754304</v>
+      </c>
+      <c r="N13">
+        <v>8.262912</v>
+      </c>
+      <c r="O13">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P13">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q13">
+        <v>0.03896054818133333</v>
+      </c>
+      <c r="R13">
+        <v>0.350644933632</v>
+      </c>
+      <c r="S13">
+        <v>0.0002050738413065984</v>
+      </c>
+      <c r="T13">
+        <v>0.0002050738413065984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.042436</v>
+      </c>
+      <c r="I14">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J14">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.687851</v>
+      </c>
+      <c r="O14">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P14">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q14">
+        <v>0.003243293892888889</v>
+      </c>
+      <c r="R14">
+        <v>0.029189645036</v>
+      </c>
+      <c r="S14">
+        <v>1.707149329638087E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.707149329638087E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.042436</v>
+      </c>
+      <c r="I15">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J15">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.214866</v>
+      </c>
+      <c r="N15">
+        <v>0.644598</v>
+      </c>
+      <c r="O15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P15">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q15">
+        <v>0.003039351192</v>
+      </c>
+      <c r="R15">
+        <v>0.027354160728</v>
+      </c>
+      <c r="S15">
+        <v>1.599801473845428E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.599801473845428E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01414533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.042436</v>
+      </c>
+      <c r="I16">
+        <v>0.0007500908404267997</v>
+      </c>
+      <c r="J16">
+        <v>0.0007500908404267996</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.797045</v>
+      </c>
+      <c r="O16">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P16">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q16">
+        <v>0.003758155735555556</v>
+      </c>
+      <c r="R16">
+        <v>0.03382340162</v>
+      </c>
+      <c r="S16">
+        <v>1.978153462655995E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.978153462655995E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H17">
+        <v>2.13459</v>
+      </c>
+      <c r="I17">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J17">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>4.703340189516666</v>
+      </c>
+      <c r="R17">
+        <v>42.33006170565</v>
+      </c>
+      <c r="S17">
+        <v>0.02475663420203136</v>
+      </c>
+      <c r="T17">
+        <v>0.02475663420203136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.13459</v>
+      </c>
+      <c r="I18">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J18">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>1.95976992512</v>
+      </c>
+      <c r="R18">
+        <v>17.63792932608</v>
+      </c>
+      <c r="S18">
+        <v>0.01031550030433245</v>
+      </c>
+      <c r="T18">
+        <v>0.01031550030433245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="H13">
-        <v>0.670384406289123</v>
-      </c>
-      <c r="I13">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="J13">
-        <v>0.03588147814914962</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N13">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P13">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q13">
-        <v>0.148067789398485</v>
-      </c>
-      <c r="R13">
-        <v>0.148067789398485</v>
-      </c>
-      <c r="S13">
-        <v>0.0009515851233074106</v>
-      </c>
-      <c r="T13">
-        <v>0.0009515851233074106</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.13459</v>
+      </c>
+      <c r="I19">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J19">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.1631422073433333</v>
+      </c>
+      <c r="R19">
+        <v>1.46827986609</v>
+      </c>
+      <c r="S19">
+        <v>0.0008587199282571786</v>
+      </c>
+      <c r="T19">
+        <v>0.0008587199282571786</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.13459</v>
+      </c>
+      <c r="I20">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J20">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.15288360498</v>
+      </c>
+      <c r="R20">
+        <v>1.37595244482</v>
+      </c>
+      <c r="S20">
+        <v>0.0008047224592458553</v>
+      </c>
+      <c r="T20">
+        <v>0.0008047224592458553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7115299999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.13459</v>
+      </c>
+      <c r="I21">
+        <v>0.03773061568165336</v>
+      </c>
+      <c r="J21">
+        <v>0.03773061568165335</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.1890404762833333</v>
+      </c>
+      <c r="R21">
+        <v>1.70136428655</v>
+      </c>
+      <c r="S21">
+        <v>0.0009950387877865161</v>
+      </c>
+      <c r="T21">
+        <v>0.0009950387877865161</v>
       </c>
     </row>
   </sheetData>
